--- a/output/possible_matches_leadpacs_workingcopy_ver2.xlsx
+++ b/output/possible_matches_leadpacs_workingcopy_ver2.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_fec_expenses_analysis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94671188-8455-4F14-BF4E-0CC42F92C649}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E736E-410D-4889-91AA-3903B6AC39B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="selectedcols" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">selectedcols!$A$1:$S$86</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="753">
   <si>
     <t>cmte_name</t>
   </si>
@@ -2274,6 +2277,12 @@
   </si>
   <si>
     <t>MARK</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -11124,32 +11133,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F743FD38-424B-40E9-B14B-89EFD9FCBE50}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11211,7 +11222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -11255,7 +11266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>60</v>
       </c>
@@ -11299,7 +11310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -11343,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -11387,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -11431,7 +11442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -11475,7 +11486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -11519,7 +11530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>97</v>
       </c>
@@ -11569,7 +11580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>97</v>
       </c>
@@ -11619,7 +11630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>
@@ -11661,6 +11672,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>751</v>
+      </c>
       <c r="B12" t="s">
         <v>141</v>
       </c>
@@ -11708,6 +11722,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>751</v>
+      </c>
       <c r="B13" t="s">
         <v>141</v>
       </c>
@@ -11755,6 +11772,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>751</v>
+      </c>
       <c r="B14" t="s">
         <v>141</v>
       </c>
@@ -11802,6 +11822,9 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>751</v>
+      </c>
       <c r="B15" t="s">
         <v>141</v>
       </c>
@@ -11849,6 +11872,9 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>751</v>
+      </c>
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -11895,7 +11921,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>751</v>
+      </c>
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -11942,7 +11971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>162</v>
       </c>
@@ -11983,7 +12012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>162</v>
       </c>
@@ -12024,7 +12053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>181</v>
       </c>
@@ -12071,7 +12100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>181</v>
       </c>
@@ -12118,7 +12147,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>751</v>
+      </c>
       <c r="B22" t="s">
         <v>196</v>
       </c>
@@ -12162,7 +12194,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>751</v>
+      </c>
       <c r="B23" t="s">
         <v>196</v>
       </c>
@@ -12206,7 +12241,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>751</v>
+      </c>
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -12250,7 +12288,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>751</v>
+      </c>
       <c r="B25" t="s">
         <v>196</v>
       </c>
@@ -12294,7 +12335,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>751</v>
+      </c>
       <c r="B26" t="s">
         <v>196</v>
       </c>
@@ -12338,7 +12382,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>751</v>
+      </c>
       <c r="B27" t="s">
         <v>196</v>
       </c>
@@ -12382,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>220</v>
       </c>
@@ -12426,7 +12473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>220</v>
       </c>
@@ -12470,7 +12517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>235</v>
       </c>
@@ -12511,7 +12558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>256</v>
       </c>
@@ -12558,7 +12605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>274</v>
       </c>
@@ -12599,7 +12646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>288</v>
       </c>
@@ -12640,7 +12687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>303</v>
       </c>
@@ -12681,7 +12728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>318</v>
       </c>
@@ -12725,7 +12772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>318</v>
       </c>
@@ -12769,7 +12816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>335</v>
       </c>
@@ -12816,7 +12863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>335</v>
       </c>
@@ -12863,7 +12910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>350</v>
       </c>
@@ -12907,7 +12954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>364</v>
       </c>
@@ -12951,7 +12998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>364</v>
       </c>
@@ -12995,7 +13042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>364</v>
       </c>
@@ -13039,7 +13086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>379</v>
       </c>
@@ -13080,7 +13127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>379</v>
       </c>
@@ -13130,7 +13177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>379</v>
       </c>
@@ -13180,7 +13227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>379</v>
       </c>
@@ -13230,7 +13277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>408</v>
       </c>
@@ -13271,7 +13318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>424</v>
       </c>
@@ -13312,7 +13359,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>752</v>
+      </c>
       <c r="B49" t="s">
         <v>440</v>
       </c>
@@ -13353,7 +13403,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>752</v>
+      </c>
       <c r="B50" t="s">
         <v>440</v>
       </c>
@@ -13394,7 +13447,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>751</v>
+      </c>
       <c r="B51" t="s">
         <v>455</v>
       </c>
@@ -13441,7 +13497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>469</v>
       </c>
@@ -13482,7 +13538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>469</v>
       </c>
@@ -13523,7 +13579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>469</v>
       </c>
@@ -13564,7 +13620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>469</v>
       </c>
@@ -13605,7 +13661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>469</v>
       </c>
@@ -13646,7 +13702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>469</v>
       </c>
@@ -13684,7 +13740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>489</v>
       </c>
@@ -13731,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>489</v>
       </c>
@@ -13772,7 +13828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>489</v>
       </c>
@@ -13813,7 +13869,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>752</v>
+      </c>
       <c r="B61" t="s">
         <v>517</v>
       </c>
@@ -13854,7 +13913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>529</v>
       </c>
@@ -13895,7 +13954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>529</v>
       </c>
@@ -13936,7 +13995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>529</v>
       </c>
@@ -13977,7 +14036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>552</v>
       </c>
@@ -14021,7 +14080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>565</v>
       </c>
@@ -14062,7 +14121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>565</v>
       </c>
@@ -14103,7 +14162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>583</v>
       </c>
@@ -14150,7 +14209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>600</v>
       </c>
@@ -14191,7 +14250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>600</v>
       </c>
@@ -14232,7 +14291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>617</v>
       </c>
@@ -14273,7 +14332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>629</v>
       </c>
@@ -14314,7 +14373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>629</v>
       </c>
@@ -14355,7 +14414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>629</v>
       </c>
@@ -14396,7 +14455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>629</v>
       </c>
@@ -14437,7 +14496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>629</v>
       </c>
@@ -14478,7 +14537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>629</v>
       </c>
@@ -14519,7 +14578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>652</v>
       </c>
@@ -14560,7 +14619,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>751</v>
+      </c>
       <c r="B79" t="s">
         <v>669</v>
       </c>
@@ -14604,7 +14666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>682</v>
       </c>
@@ -14648,7 +14710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>695</v>
       </c>
@@ -14689,7 +14751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>695</v>
       </c>
@@ -14733,7 +14795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>695</v>
       </c>
@@ -14777,7 +14839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>718</v>
       </c>
@@ -14821,7 +14883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>718</v>
       </c>
@@ -14865,7 +14927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>733</v>
       </c>
@@ -14907,6 +14969,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S86" xr:uid="{F29AF432-312A-49D8-A9D8-4FC2B6190009}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>